--- a/ibd_table.xlsx
+++ b/ibd_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,35 +365,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>female.Hispanic</t>
+          <t>Hispanic.Female</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>male.Hispanic</t>
+          <t>Hispanic.Male</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>female.NotHispanic</t>
+          <t>Hispanic.Unknown or Not Reported Sex</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>male.NotHispanic</t>
+          <t>Not.Female</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>female.Unknown</t>
+          <t>Not.Male</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>male.Unknown</t>
+          <t>Not.Unknown or Not Reported Sex</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unknown.Female</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unknown.Male</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unknown.Unknown or Not Reported Sex</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -426,6 +441,15 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -440,18 +464,27 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
     </row>
@@ -468,18 +501,27 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
     </row>
@@ -496,18 +538,27 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
     </row>
@@ -538,6 +589,15 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -555,15 +615,24 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
     </row>
@@ -580,18 +649,27 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>99</v>
       </c>
     </row>
@@ -608,18 +686,27 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>54</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>117</v>
       </c>
     </row>
